--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\2025\الفصل الأول\grades-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75559C55-8F94-4D5A-963D-011FE7759DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853A0FF2-5195-4CA3-BC33-035C3942E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -532,6 +532,15 @@
       <c r="C3">
         <v>9</v>
       </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
